--- a/biology/Botanique/Opopanax_(résine)/Opopanax_(résine).xlsx
+++ b/biology/Botanique/Opopanax_(résine)/Opopanax_(résine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Opopanax_(r%C3%A9sine)</t>
+          <t>Opopanax_(résine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Opopanax, ou Opoponax, est le nom commercial du bisabol ou bissabol, une résine qui  provient de certaines espèces d' arbustes du genre Commiphora, poussant au Moyen-Orient et en Afrique, principalement en Somalie, en Éthiopie ou en Érythrée. Ces arbustes ont besoin d'un climat chaud pour se développer. Le terme opopanax désigne aussi une résine extraite des plantes de la famille des Apiacées et du genre Opopanax, rarement utilisée de nos jours.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Opopanax_(r%C3%A9sine)</t>
+          <t>Opopanax_(résine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Parfumerie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Opoponax est employé en parfumerie sous forme de baume.
 La partie qui intéresse les parfumeurs n'est pas sa fleur mais sa tige. En effet, en parfumerie, l'opoponax est célèbre pour sa résine issue de cette partie. De même, l'opoponax est une substance qui est souvent utilisée comme encens et sert notamment à purifier l'air et à le désinfecter.
